--- a/pds.xlsx
+++ b/pds.xlsx
@@ -340,13 +340,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:YR2"/>
+  <dimension ref="A1:YQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:668">
+    <row r="1" spans="1:667">
       <c r="A1">
         <v>0</v>
       </c>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="CY1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA1">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="DI1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK1">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="DO1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ1">
         <v>0</v>
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="DW1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY1">
         <v>0</v>
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="EH1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ1">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="ES1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU1">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="GO1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GQ1">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="HC1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE1">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="HI1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK1">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="HQ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HS1">
         <v>0</v>
@@ -1050,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="IA1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC1">
         <v>0</v>
@@ -1092,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="IO1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP1">
         <v>1</v>
       </c>
       <c r="IQ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR1">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="KI1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="KR1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT1">
         <v>0</v>
@@ -1281,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="KZ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LA1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LB1">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="MB1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MC1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD1">
         <v>0</v>
@@ -1380,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="MG1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MH1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI1">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="NJ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NK1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NL1">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="NX1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ1">
         <v>0</v>
@@ -1560,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="OO1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OP1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OQ1">
         <v>0</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="PB1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PC1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PD1">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="PJ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PK1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PL1">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="RH1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RI1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RJ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RK1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RL1">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="RZ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SA1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SB1">
         <v>0</v>
@@ -1905,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="SZ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TA1">
         <v>1</v>
       </c>
       <c r="TB1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TC1">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="TV1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TW1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TX1">
         <v>0</v>
@@ -2034,22 +2034,22 @@
         <v>0</v>
       </c>
       <c r="UQ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UR1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="US1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UT1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UU1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UV1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UW1">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="XK1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XL1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XM1">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="XX1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XY1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XZ1">
         <v>0</v>
@@ -2328,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="YK1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="YL1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YM1">
         <v>0</v>
@@ -2348,11 +2348,8 @@
       <c r="YQ1">
         <v>0</v>
       </c>
-      <c r="YR1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:668">
+    <row r="2" spans="1:667">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2387,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -2423,13 +2420,13 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -2456,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -2471,13 +2468,13 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -2495,22 +2492,22 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2">
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2">
         <v>1</v>
@@ -2537,10 +2534,10 @@
         <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL2">
         <v>0</v>
@@ -2570,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -2585,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -2603,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="CF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG2">
         <v>1</v>
@@ -2630,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="CO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP2">
         <v>0</v>
@@ -2639,19 +2636,19 @@
         <v>1</v>
       </c>
       <c r="CR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS2">
         <v>0</v>
       </c>
       <c r="CT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU2">
         <v>0</v>
       </c>
       <c r="CV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW2">
         <v>1</v>
@@ -2660,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA2">
         <v>0</v>
@@ -2672,13 +2669,13 @@
         <v>0</v>
       </c>
       <c r="DC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD2">
         <v>0</v>
       </c>
       <c r="DE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF2">
         <v>1</v>
@@ -2687,31 +2684,31 @@
         <v>0</v>
       </c>
       <c r="DH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI2">
         <v>1</v>
       </c>
       <c r="DJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
         <v>0</v>
@@ -2723,16 +2720,16 @@
         <v>0</v>
       </c>
       <c r="DT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU2">
         <v>0</v>
       </c>
       <c r="DV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX2">
         <v>0</v>
@@ -2747,22 +2744,22 @@
         <v>0</v>
       </c>
       <c r="EB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED2">
         <v>0</v>
       </c>
       <c r="EE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH2">
         <v>0</v>
@@ -2780,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="EM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN2">
         <v>0</v>
@@ -2798,34 +2795,34 @@
         <v>0</v>
       </c>
       <c r="ES2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV2">
         <v>1</v>
       </c>
       <c r="EW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA2">
         <v>0</v>
       </c>
       <c r="FB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC2">
         <v>1</v>
@@ -2834,37 +2831,37 @@
         <v>1</v>
       </c>
       <c r="FE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF2">
         <v>1</v>
       </c>
       <c r="FG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI2">
         <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM2">
         <v>0</v>
       </c>
       <c r="FN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP2">
         <v>0</v>
@@ -2879,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="FT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU2">
         <v>0</v>
       </c>
       <c r="FV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2">
         <v>0</v>
@@ -2897,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA2">
         <v>0</v>
@@ -2912,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="GE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF2">
         <v>1</v>
@@ -2921,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="GH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI2">
         <v>0</v>
@@ -2942,22 +2939,22 @@
         <v>0</v>
       </c>
       <c r="GO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
         <v>0</v>
       </c>
       <c r="GR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
       </c>
       <c r="GT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU2">
         <v>0</v>
@@ -2966,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="GW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX2">
         <v>0</v>
@@ -2975,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="GZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA2">
         <v>1</v>
@@ -2996,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="HG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH2">
         <v>0</v>
@@ -3005,16 +3002,16 @@
         <v>0</v>
       </c>
       <c r="HJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK2">
         <v>0</v>
       </c>
       <c r="HL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN2">
         <v>0</v>
@@ -3026,16 +3023,16 @@
         <v>0</v>
       </c>
       <c r="HQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HU2">
         <v>0</v>
@@ -3047,28 +3044,28 @@
         <v>0</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY2">
         <v>0</v>
       </c>
       <c r="HZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID2">
         <v>1</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF2">
         <v>0</v>
@@ -3089,25 +3086,25 @@
         <v>0</v>
       </c>
       <c r="IL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM2">
         <v>1</v>
       </c>
       <c r="IN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP2">
         <v>0</v>
       </c>
       <c r="IQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS2">
         <v>1</v>
@@ -3116,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="IU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV2">
         <v>0</v>
@@ -3125,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="IX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY2">
         <v>1</v>
@@ -3137,40 +3134,40 @@
         <v>0</v>
       </c>
       <c r="JB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC2">
         <v>0</v>
       </c>
       <c r="JD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE2">
         <v>1</v>
       </c>
       <c r="JF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH2">
         <v>1</v>
       </c>
       <c r="JI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
       </c>
       <c r="JK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN2">
         <v>1</v>
@@ -3182,25 +3179,25 @@
         <v>1</v>
       </c>
       <c r="JQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU2">
         <v>0</v>
       </c>
       <c r="JV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX2">
         <v>0</v>
@@ -3209,19 +3206,19 @@
         <v>0</v>
       </c>
       <c r="JZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA2">
         <v>0</v>
       </c>
       <c r="KB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE2">
         <v>1</v>
@@ -3233,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="KH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI2">
         <v>0</v>
       </c>
       <c r="KJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK2">
         <v>1</v>
@@ -3248,22 +3245,22 @@
         <v>0</v>
       </c>
       <c r="KM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN2">
         <v>1</v>
       </c>
       <c r="KO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP2">
         <v>0</v>
       </c>
       <c r="KQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS2">
         <v>1</v>
@@ -3278,19 +3275,19 @@
         <v>0</v>
       </c>
       <c r="KW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LB2">
         <v>0</v>
@@ -3299,25 +3296,25 @@
         <v>0</v>
       </c>
       <c r="LD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF2">
         <v>0</v>
       </c>
       <c r="LG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LI2">
         <v>1</v>
       </c>
       <c r="LJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK2">
         <v>0</v>
@@ -3326,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="LM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LO2">
         <v>0</v>
@@ -3338,13 +3335,13 @@
         <v>0</v>
       </c>
       <c r="LQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT2">
         <v>1</v>
@@ -3353,16 +3350,16 @@
         <v>1</v>
       </c>
       <c r="LV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW2">
         <v>0</v>
       </c>
       <c r="LX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LZ2">
         <v>1</v>
@@ -3374,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="MC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD2">
         <v>0</v>
@@ -3386,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="MG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MJ2">
         <v>0</v>
@@ -3401,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="ML2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN2">
         <v>0</v>
       </c>
       <c r="MO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MP2">
         <v>0</v>
@@ -3428,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="MU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV2">
         <v>0</v>
       </c>
       <c r="MW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MX2">
         <v>1</v>
@@ -3443,10 +3440,10 @@
         <v>1</v>
       </c>
       <c r="MZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB2">
         <v>0</v>
@@ -3455,70 +3452,70 @@
         <v>0</v>
       </c>
       <c r="ND2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NG2">
         <v>0</v>
       </c>
       <c r="NH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NI2">
         <v>1</v>
       </c>
       <c r="NJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NR2">
         <v>0</v>
       </c>
       <c r="NS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NV2">
         <v>0</v>
       </c>
       <c r="NW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX2">
         <v>1</v>
       </c>
       <c r="NY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ2">
         <v>0</v>
@@ -3533,31 +3530,31 @@
         <v>0</v>
       </c>
       <c r="OD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OH2">
         <v>0</v>
       </c>
       <c r="OI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OK2">
         <v>0</v>
       </c>
       <c r="OL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OM2">
         <v>0</v>
@@ -3566,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="OO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OQ2">
         <v>0</v>
       </c>
       <c r="OR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OS2">
         <v>1</v>
@@ -3590,25 +3587,25 @@
         <v>1</v>
       </c>
       <c r="OW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OX2">
         <v>0</v>
       </c>
       <c r="OY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PB2">
         <v>1</v>
       </c>
       <c r="PC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PD2">
         <v>0</v>
@@ -3617,19 +3614,19 @@
         <v>0</v>
       </c>
       <c r="PF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PK2">
         <v>1</v>
@@ -3638,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="PM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PN2">
         <v>1</v>
       </c>
       <c r="PO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PS2">
         <v>1</v>
@@ -3668,10 +3665,10 @@
         <v>1</v>
       </c>
       <c r="PW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PY2">
         <v>1</v>
@@ -3701,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="QH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QI2">
         <v>0</v>
@@ -3731,19 +3728,19 @@
         <v>0</v>
       </c>
       <c r="QR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QT2">
         <v>0</v>
       </c>
       <c r="QU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QW2">
         <v>0</v>
@@ -3758,25 +3755,25 @@
         <v>0</v>
       </c>
       <c r="RA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RC2">
         <v>0</v>
       </c>
       <c r="RD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RF2">
         <v>0</v>
       </c>
       <c r="RG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RH2">
         <v>0</v>
@@ -3785,19 +3782,19 @@
         <v>0</v>
       </c>
       <c r="RJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RK2">
         <v>0</v>
       </c>
       <c r="RL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RO2">
         <v>0</v>
@@ -3809,10 +3806,10 @@
         <v>0</v>
       </c>
       <c r="RR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RT2">
         <v>0</v>
@@ -3824,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="RW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RX2">
         <v>0</v>
@@ -3833,73 +3830,73 @@
         <v>0</v>
       </c>
       <c r="RZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SA2">
         <v>1</v>
       </c>
       <c r="SB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SD2">
         <v>0</v>
       </c>
       <c r="SE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SG2">
         <v>0</v>
       </c>
       <c r="SH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SJ2">
         <v>1</v>
       </c>
       <c r="SK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SM2">
         <v>1</v>
       </c>
       <c r="SN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SO2">
         <v>1</v>
       </c>
       <c r="SP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SS2">
         <v>0</v>
       </c>
       <c r="ST2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SW2">
         <v>1</v>
@@ -3908,13 +3905,13 @@
         <v>0</v>
       </c>
       <c r="SY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SZ2">
         <v>1</v>
       </c>
       <c r="TA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TB2">
         <v>0</v>
@@ -3923,10 +3920,10 @@
         <v>0</v>
       </c>
       <c r="TD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TF2">
         <v>0</v>
@@ -3938,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="TI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TJ2">
         <v>0</v>
@@ -3950,10 +3947,10 @@
         <v>0</v>
       </c>
       <c r="TM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TO2">
         <v>1</v>
@@ -3962,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="TQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TR2">
         <v>0</v>
@@ -3980,31 +3977,31 @@
         <v>0</v>
       </c>
       <c r="TW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TX2">
         <v>1</v>
       </c>
       <c r="TY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UB2">
         <v>1</v>
       </c>
       <c r="UC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UF2">
         <v>0</v>
@@ -4019,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="UJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UL2">
         <v>0</v>
@@ -4034,58 +4031,58 @@
         <v>0</v>
       </c>
       <c r="UO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UQ2">
         <v>1</v>
       </c>
       <c r="UR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="US2">
         <v>1</v>
       </c>
       <c r="UT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UV2">
         <v>0</v>
       </c>
       <c r="UW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UY2">
         <v>1</v>
       </c>
       <c r="UZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VA2">
         <v>1</v>
       </c>
       <c r="VB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VG2">
         <v>0</v>
@@ -4109,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="VN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VP2">
         <v>1</v>
       </c>
       <c r="VQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VR2">
         <v>1</v>
       </c>
       <c r="VS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VT2">
         <v>0</v>
@@ -4133,13 +4130,13 @@
         <v>0</v>
       </c>
       <c r="VV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VW2">
         <v>1</v>
       </c>
       <c r="VX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VY2">
         <v>1</v>
@@ -4154,16 +4151,16 @@
         <v>0</v>
       </c>
       <c r="WC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WG2">
         <v>0</v>
@@ -4187,13 +4184,13 @@
         <v>0</v>
       </c>
       <c r="WN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WQ2">
         <v>0</v>
@@ -4202,10 +4199,10 @@
         <v>0</v>
       </c>
       <c r="WS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WU2">
         <v>0</v>
@@ -4220,43 +4217,43 @@
         <v>0</v>
       </c>
       <c r="WY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WZ2">
         <v>1</v>
       </c>
       <c r="XA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XC2">
         <v>0</v>
       </c>
       <c r="XD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XF2">
         <v>0</v>
       </c>
       <c r="XG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XH2">
         <v>0</v>
       </c>
       <c r="XI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XJ2">
         <v>0</v>
       </c>
       <c r="XK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XL2">
         <v>0</v>
@@ -4274,16 +4271,16 @@
         <v>0</v>
       </c>
       <c r="XQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XU2">
         <v>1</v>
@@ -4304,10 +4301,10 @@
         <v>0</v>
       </c>
       <c r="YA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="YB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YC2">
         <v>0</v>
@@ -4331,27 +4328,21 @@
         <v>0</v>
       </c>
       <c r="YJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="YK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="YL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="YN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YO2">
-        <v>0</v>
-      </c>
-      <c r="YP2">
-        <v>1</v>
-      </c>
-      <c r="YQ2">
         <v>1</v>
       </c>
     </row>
